--- a/ShippingMark/wwwroot/example_excel/upload_template.xlsx
+++ b/ShippingMark/wwwroot/example_excel/upload_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vogia\Documents\GitHub\ShippingMark\ShippingMark\wwwroot\example_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vogia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1DB16D-E401-4977-8475-0B2C7FF45991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7CF876-5F52-4CE3-A3DA-8323D4C0B9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9FB053E7-4228-4295-9A09-A22C30AC7F5C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>CARTON NO</t>
   </si>
@@ -153,13 +153,121 @@
     <t>Pink</t>
   </si>
   <si>
-    <t>52 x 36 x 40</t>
-  </si>
-  <si>
     <t>Green</t>
   </si>
   <si>
     <t>Gold</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>52x36x40</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
 </sst>
 </file>
@@ -172,7 +280,7 @@
     <numFmt numFmtId="165" formatCode="0000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +348,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -270,19 +384,18 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -300,9 +413,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -322,10 +432,13 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -645,671 +758,1020 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555263AD-5947-4833-A0AF-64316F79D6BC}">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:BT11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="30" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.21875" customWidth="1"/>
+    <col min="20" max="20" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.21875" customWidth="1"/>
+    <col min="22" max="22" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.21875" customWidth="1"/>
+    <col min="24" max="24" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.21875" customWidth="1"/>
+    <col min="26" max="26" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.21875" customWidth="1"/>
+    <col min="28" max="28" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.21875" customWidth="1"/>
+    <col min="30" max="30" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.21875" customWidth="1"/>
+    <col min="32" max="32" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.21875" customWidth="1"/>
+    <col min="34" max="34" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.21875" customWidth="1"/>
+    <col min="36" max="36" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.21875" customWidth="1"/>
+    <col min="38" max="38" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.21875" customWidth="1"/>
+    <col min="40" max="40" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.21875" customWidth="1"/>
+    <col min="42" max="42" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="66" width="3.21875" customWidth="1"/>
+    <col min="67" max="67" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+    <row r="1" spans="1:72" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
+      <c r="BG1" s="7"/>
+      <c r="BH1" s="7"/>
+      <c r="BI1" s="7"/>
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7"/>
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="7"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
+      <c r="BR1" s="7"/>
+      <c r="BS1" s="7"/>
+      <c r="BT1" s="7"/>
     </row>
-    <row r="2" spans="1:36" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:72" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="U2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="W2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="Y2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="AA2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="AC2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="AE2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="AG2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AI2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AK2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AM2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AO2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AQ2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="BP2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="BQ2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="BR2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="BS2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="BT2" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+    <row r="3" spans="1:72" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="17">
-        <f>A3+AF3-1</f>
+      <c r="B3" s="16"/>
+      <c r="C3" s="15">
+        <f>A3+BP3-1</f>
         <v>1</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>1</v>
       </c>
-      <c r="E3" s="17">
-        <f>D3+AF3-1</f>
+      <c r="E3" s="15">
+        <f>D3+BP3-1</f>
         <v>1</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="15">
         <v>3</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="15">
         <v>13</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17">
+      <c r="M3" s="15"/>
+      <c r="N3" s="15">
         <v>8</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17">
+      <c r="O3" s="15"/>
+      <c r="P3" s="15">
         <v>15</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15">
         <v>7</v>
       </c>
-      <c r="W3" s="17">
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15">
         <v>3</v>
       </c>
-      <c r="X3" s="17">
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15">
         <v>1</v>
       </c>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="2">
-        <f t="shared" ref="AE3:AE7" si="0">SUM(K3:AA3)</f>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="15"/>
+      <c r="BL3" s="15"/>
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="15"/>
+      <c r="BO3" s="1">
+        <f t="shared" ref="BO3:BO7" si="0">SUM(K3:AJ3)</f>
         <v>50</v>
       </c>
-      <c r="AF3" s="17">
+      <c r="BP3" s="15">
         <v>1</v>
       </c>
-      <c r="AG3" s="20">
-        <f>AE3*AF3</f>
+      <c r="BQ3" s="18">
+        <f>BO3*BP3</f>
         <v>50</v>
       </c>
-      <c r="AH3" s="17">
-        <f>22*AF3</f>
+      <c r="BR3" s="15">
+        <f>22*BP3</f>
         <v>22</v>
       </c>
-      <c r="AI3" s="21">
-        <f>23*AF3</f>
+      <c r="BS3" s="9">
+        <f>23*BP3</f>
         <v>23</v>
       </c>
-      <c r="AJ3" s="22" t="s">
-        <v>39</v>
+      <c r="BT3" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+    <row r="4" spans="1:72" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
         <f>C3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="17">
-        <f>A4+AF4-1</f>
+      <c r="C4" s="15">
+        <f>A4+BP4-1</f>
         <v>2</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="E4" s="17">
-        <f>D4+AF4-1</f>
+      <c r="E4" s="15">
+        <f>D4+BP4-1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15">
         <v>14</v>
       </c>
-      <c r="S4" s="17">
+      <c r="S4" s="15"/>
+      <c r="T4" s="15">
         <v>10</v>
       </c>
-      <c r="T4" s="17">
+      <c r="U4" s="15"/>
+      <c r="V4" s="15">
         <v>13</v>
       </c>
-      <c r="U4" s="17">
+      <c r="W4" s="15"/>
+      <c r="X4" s="15">
         <v>8</v>
       </c>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="2">
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15"/>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="15"/>
+      <c r="BK4" s="15"/>
+      <c r="BL4" s="15"/>
+      <c r="BM4" s="15"/>
+      <c r="BN4" s="15"/>
+      <c r="BO4" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AF4" s="17">
+      <c r="BP4" s="15">
         <v>1</v>
       </c>
-      <c r="AG4" s="20">
-        <f t="shared" ref="AG4:AG7" si="1">AE4*AF4</f>
+      <c r="BQ4" s="18">
+        <f t="shared" ref="BQ4:BQ7" si="1">BO4*BP4</f>
         <v>45</v>
       </c>
-      <c r="AH4" s="17">
-        <f t="shared" ref="AH4:AH7" si="2">22*AF4</f>
+      <c r="BR4" s="15">
+        <f t="shared" ref="BR4:BR7" si="2">22*BP4</f>
         <v>22</v>
       </c>
-      <c r="AI4" s="21">
-        <f t="shared" ref="AI4:AI7" si="3">23*AF4</f>
+      <c r="BS4" s="9">
+        <f t="shared" ref="BS4:BS7" si="3">23*BP4</f>
         <v>23</v>
       </c>
-      <c r="AJ4" s="22" t="s">
-        <v>39</v>
+      <c r="BT4" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+    <row r="5" spans="1:72" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
         <f t="shared" ref="A5:A7" si="4">C4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="17">
-        <f>A5+AF5-1</f>
+      <c r="C5" s="15">
+        <f>A5+BP5-1</f>
         <v>3</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="E5" s="17">
-        <f>D5+AF5-1</f>
+      <c r="E5" s="15">
+        <f>D5+BP5-1</f>
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="17">
+      <c r="J5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="15">
         <v>5</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="15">
         <v>5</v>
       </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17">
+      <c r="M5" s="15"/>
+      <c r="N5" s="15">
         <v>4</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17">
+      <c r="O5" s="15"/>
+      <c r="P5" s="15">
         <v>7</v>
       </c>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17">
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15">
         <v>8</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="15"/>
+      <c r="T5" s="15">
         <v>4</v>
       </c>
-      <c r="T5" s="17">
+      <c r="U5" s="15"/>
+      <c r="V5" s="15">
         <v>6</v>
       </c>
-      <c r="U5" s="17">
+      <c r="W5" s="15"/>
+      <c r="X5" s="15">
         <v>5</v>
       </c>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="2">
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="15"/>
+      <c r="BB5" s="15"/>
+      <c r="BC5" s="15"/>
+      <c r="BD5" s="15"/>
+      <c r="BE5" s="15"/>
+      <c r="BF5" s="15"/>
+      <c r="BG5" s="15"/>
+      <c r="BH5" s="15"/>
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="15"/>
+      <c r="BK5" s="15"/>
+      <c r="BL5" s="15"/>
+      <c r="BM5" s="15"/>
+      <c r="BN5" s="15"/>
+      <c r="BO5" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AF5" s="17">
+      <c r="BP5" s="15">
         <v>1</v>
       </c>
-      <c r="AG5" s="20">
+      <c r="BQ5" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="AH5" s="17">
+      <c r="BR5" s="15">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="AI5" s="21">
+      <c r="BS5" s="9">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="AJ5" s="22" t="s">
-        <v>39</v>
+      <c r="BT5" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+    <row r="6" spans="1:72" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="17">
-        <f>A6+AF6-1</f>
+      <c r="C6" s="15">
+        <f>A6+BP6-1</f>
         <v>4</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <f t="shared" ref="D6:D7" si="5">E5+1</f>
         <v>4</v>
       </c>
-      <c r="E6" s="17">
-        <f>D6+AF6-1</f>
+      <c r="E6" s="15">
+        <f>D6+BP6-1</f>
         <v>4</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="17">
+      <c r="J6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="15">
         <v>10</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="15">
         <v>10</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15">
         <v>7</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17">
+      <c r="O6" s="15"/>
+      <c r="P6" s="15">
         <v>14</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="2">
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15"/>
+      <c r="BL6" s="15"/>
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="15"/>
+      <c r="BO6" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AF6" s="17">
+      <c r="BP6" s="15">
         <v>1</v>
       </c>
-      <c r="AG6" s="20">
+      <c r="BQ6" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="AH6" s="17">
+      <c r="BR6" s="15">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="AI6" s="21">
+      <c r="BS6" s="9">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="AJ6" s="22" t="s">
-        <v>39</v>
+      <c r="BT6" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+    <row r="7" spans="1:72" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="17">
-        <f>A7+AF7-1</f>
+      <c r="C7" s="15">
+        <f>A7+BP7-1</f>
         <v>5</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="E7" s="17">
-        <f>D7+AF7-1</f>
+      <c r="E7" s="15">
+        <f>D7+BP7-1</f>
         <v>5</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17">
+      <c r="J7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15">
         <v>13</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="15"/>
+      <c r="T7" s="15">
         <v>13</v>
       </c>
-      <c r="T7" s="17">
+      <c r="U7" s="15"/>
+      <c r="V7" s="15">
         <v>22</v>
       </c>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="2">
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15"/>
+      <c r="BC7" s="15"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15"/>
+      <c r="BL7" s="15"/>
+      <c r="BM7" s="15"/>
+      <c r="BN7" s="15"/>
+      <c r="BO7" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AF7" s="17">
+      <c r="BP7" s="15">
         <v>1</v>
       </c>
-      <c r="AG7" s="20">
+      <c r="BQ7" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AH7" s="17">
+      <c r="BR7" s="15">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="AI7" s="21">
+      <c r="BS7" s="9">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="AJ7" s="22" t="s">
-        <v>39</v>
+      <c r="BT7" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:E2"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ShippingMark/wwwroot/example_excel/upload_template.xlsx
+++ b/ShippingMark/wwwroot/example_excel/upload_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vogia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vogia\Documents\GitHub\ShippingMark\ShippingMark\wwwroot\example_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7CF876-5F52-4CE3-A3DA-8323D4C0B9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A137EC64-D5C0-4465-894C-833D6A8C36E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9FB053E7-4228-4295-9A09-A22C30AC7F5C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
   <si>
     <t>CARTON NO</t>
   </si>
@@ -268,6 +268,24 @@
   </si>
   <si>
     <t>29</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>2XL</t>
   </si>
 </sst>
 </file>
@@ -758,13 +776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555263AD-5947-4833-A0AF-64316F79D6BC}">
-  <dimension ref="A1:BT11"/>
+  <dimension ref="A1:BZ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+      <selection activeCell="CK2" sqref="CK2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="1.77734375" bestFit="1" customWidth="1"/>
@@ -779,40 +797,23 @@
     <col min="16" max="16" width="3.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.21875" customWidth="1"/>
+    <col min="19" max="19" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.21875" customWidth="1"/>
-    <col min="22" max="22" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.21875" customWidth="1"/>
-    <col min="24" max="24" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.21875" customWidth="1"/>
-    <col min="26" max="26" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.21875" customWidth="1"/>
-    <col min="28" max="28" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.21875" customWidth="1"/>
-    <col min="30" max="30" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.21875" customWidth="1"/>
-    <col min="32" max="32" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.21875" customWidth="1"/>
-    <col min="34" max="34" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.21875" customWidth="1"/>
-    <col min="36" max="36" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.21875" customWidth="1"/>
-    <col min="38" max="38" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3.21875" customWidth="1"/>
-    <col min="40" max="40" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.21875" customWidth="1"/>
-    <col min="42" max="42" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="43" max="66" width="3.21875" customWidth="1"/>
-    <col min="67" max="67" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="67" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:78" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -887,8 +888,14 @@
       <c r="BR1" s="7"/>
       <c r="BS1" s="7"/>
       <c r="BT1" s="7"/>
+      <c r="BU1" s="7"/>
+      <c r="BV1" s="7"/>
+      <c r="BW1" s="7"/>
+      <c r="BX1" s="7"/>
+      <c r="BY1" s="7"/>
+      <c r="BZ1" s="7"/>
     </row>
-    <row r="2" spans="1:72" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -1081,39 +1088,57 @@
       <c r="BN2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="BO2" s="10" t="s">
+      <c r="BO2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="BP2" s="10" t="s">
+      <c r="BV2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="BQ2" s="10" t="s">
+      <c r="BW2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="BR2" s="10" t="s">
+      <c r="BX2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="BS2" s="10" t="s">
+      <c r="BY2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="BT2" s="10" t="s">
+      <c r="BZ2" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:72" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:78" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>1</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="15">
-        <f>A3+BP3-1</f>
+        <f>A3+BV3-1</f>
         <v>1</v>
       </c>
       <c r="D3" s="15">
         <v>1</v>
       </c>
       <c r="E3" s="15">
-        <f>D3+BP3-1</f>
+        <f>D3+BV3-1</f>
         <v>1</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -1201,30 +1226,36 @@
       <c r="BL3" s="15"/>
       <c r="BM3" s="15"/>
       <c r="BN3" s="15"/>
-      <c r="BO3" s="1">
-        <f t="shared" ref="BO3:BO7" si="0">SUM(K3:AJ3)</f>
+      <c r="BO3" s="15"/>
+      <c r="BP3" s="15"/>
+      <c r="BQ3" s="15"/>
+      <c r="BR3" s="15"/>
+      <c r="BS3" s="15"/>
+      <c r="BT3" s="15"/>
+      <c r="BU3" s="1">
+        <f t="shared" ref="BU3:BU7" si="0">SUM(K3:AJ3)</f>
         <v>50</v>
       </c>
-      <c r="BP3" s="15">
+      <c r="BV3" s="15">
         <v>1</v>
       </c>
-      <c r="BQ3" s="18">
-        <f>BO3*BP3</f>
+      <c r="BW3" s="18">
+        <f>BU3*BV3</f>
         <v>50</v>
       </c>
-      <c r="BR3" s="15">
-        <f>22*BP3</f>
+      <c r="BX3" s="15">
+        <f>22*BV3</f>
         <v>22</v>
       </c>
-      <c r="BS3" s="9">
-        <f>23*BP3</f>
+      <c r="BY3" s="9">
+        <f>23*BV3</f>
         <v>23</v>
       </c>
-      <c r="BT3" s="19" t="s">
+      <c r="BZ3" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:72" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:78" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <f>C3+1</f>
         <v>2</v>
@@ -1233,7 +1264,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="15">
-        <f>A4+BP4-1</f>
+        <f>A4+BV4-1</f>
         <v>2</v>
       </c>
       <c r="D4" s="15">
@@ -1241,7 +1272,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="15">
-        <f>D4+BP4-1</f>
+        <f>D4+BV4-1</f>
         <v>2</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -1323,30 +1354,36 @@
       <c r="BL4" s="15"/>
       <c r="BM4" s="15"/>
       <c r="BN4" s="15"/>
-      <c r="BO4" s="1">
+      <c r="BO4" s="15"/>
+      <c r="BP4" s="15"/>
+      <c r="BQ4" s="15"/>
+      <c r="BR4" s="15"/>
+      <c r="BS4" s="15"/>
+      <c r="BT4" s="15"/>
+      <c r="BU4" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="BP4" s="15">
+      <c r="BV4" s="15">
         <v>1</v>
       </c>
-      <c r="BQ4" s="18">
-        <f t="shared" ref="BQ4:BQ7" si="1">BO4*BP4</f>
+      <c r="BW4" s="18">
+        <f t="shared" ref="BW4:BW7" si="1">BU4*BV4</f>
         <v>45</v>
       </c>
-      <c r="BR4" s="15">
-        <f t="shared" ref="BR4:BR7" si="2">22*BP4</f>
+      <c r="BX4" s="15">
+        <f t="shared" ref="BX4:BX7" si="2">22*BV4</f>
         <v>22</v>
       </c>
-      <c r="BS4" s="9">
-        <f t="shared" ref="BS4:BS7" si="3">23*BP4</f>
+      <c r="BY4" s="9">
+        <f t="shared" ref="BY4:BY7" si="3">23*BV4</f>
         <v>23</v>
       </c>
-      <c r="BT4" s="19" t="s">
+      <c r="BZ4" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:72" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <f t="shared" ref="A5:A7" si="4">C4+1</f>
         <v>3</v>
@@ -1355,7 +1392,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="15">
-        <f>A5+BP5-1</f>
+        <f>A5+BV5-1</f>
         <v>3</v>
       </c>
       <c r="D5" s="15">
@@ -1363,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="15">
-        <f>D5+BP5-1</f>
+        <f>D5+BV5-1</f>
         <v>3</v>
       </c>
       <c r="F5" s="17" t="s">
@@ -1453,30 +1490,36 @@
       <c r="BL5" s="15"/>
       <c r="BM5" s="15"/>
       <c r="BN5" s="15"/>
-      <c r="BO5" s="1">
+      <c r="BO5" s="15"/>
+      <c r="BP5" s="15"/>
+      <c r="BQ5" s="15"/>
+      <c r="BR5" s="15"/>
+      <c r="BS5" s="15"/>
+      <c r="BT5" s="15"/>
+      <c r="BU5" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="BP5" s="15">
+      <c r="BV5" s="15">
         <v>1</v>
       </c>
-      <c r="BQ5" s="18">
+      <c r="BW5" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="BR5" s="15">
+      <c r="BX5" s="15">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="BS5" s="9">
+      <c r="BY5" s="9">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="BT5" s="19" t="s">
+      <c r="BZ5" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:72" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:78" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -1485,7 +1528,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="15">
-        <f>A6+BP6-1</f>
+        <f>A6+BV6-1</f>
         <v>4</v>
       </c>
       <c r="D6" s="15">
@@ -1493,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="15">
-        <f>D6+BP6-1</f>
+        <f>D6+BV6-1</f>
         <v>4</v>
       </c>
       <c r="F6" s="17" t="s">
@@ -1575,30 +1618,36 @@
       <c r="BL6" s="15"/>
       <c r="BM6" s="15"/>
       <c r="BN6" s="15"/>
-      <c r="BO6" s="1">
+      <c r="BO6" s="15"/>
+      <c r="BP6" s="15"/>
+      <c r="BQ6" s="15"/>
+      <c r="BR6" s="15"/>
+      <c r="BS6" s="15"/>
+      <c r="BT6" s="15"/>
+      <c r="BU6" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="BP6" s="15">
+      <c r="BV6" s="15">
         <v>1</v>
       </c>
-      <c r="BQ6" s="18">
+      <c r="BW6" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="BR6" s="15">
+      <c r="BX6" s="15">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="BS6" s="9">
+      <c r="BY6" s="9">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="BT6" s="19" t="s">
+      <c r="BZ6" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:72" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:78" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -1607,7 +1656,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="15">
-        <f>A7+BP7-1</f>
+        <f>A7+BV7-1</f>
         <v>5</v>
       </c>
       <c r="D7" s="15">
@@ -1615,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="15">
-        <f>D7+BP7-1</f>
+        <f>D7+BV7-1</f>
         <v>5</v>
       </c>
       <c r="F7" s="17" t="s">
@@ -1695,30 +1744,36 @@
       <c r="BL7" s="15"/>
       <c r="BM7" s="15"/>
       <c r="BN7" s="15"/>
-      <c r="BO7" s="1">
+      <c r="BO7" s="15"/>
+      <c r="BP7" s="15"/>
+      <c r="BQ7" s="15"/>
+      <c r="BR7" s="15"/>
+      <c r="BS7" s="15"/>
+      <c r="BT7" s="15"/>
+      <c r="BU7" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="BP7" s="15">
+      <c r="BV7" s="15">
         <v>1</v>
       </c>
-      <c r="BQ7" s="18">
+      <c r="BW7" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="BR7" s="15">
+      <c r="BX7" s="15">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="BS7" s="9">
+      <c r="BY7" s="9">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="BT7" s="19" t="s">
+      <c r="BZ7" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1730,7 +1785,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1742,7 +1797,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1754,7 +1809,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>

--- a/ShippingMark/wwwroot/example_excel/upload_template.xlsx
+++ b/ShippingMark/wwwroot/example_excel/upload_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vogia\Documents\GitHub\ShippingMark\ShippingMark\wwwroot\example_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A137EC64-D5C0-4465-894C-833D6A8C36E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD166C18-E8F2-4112-A61F-9A907C19AB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9FB053E7-4228-4295-9A09-A22C30AC7F5C}"/>
+    <workbookView xWindow="-75" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{9FB053E7-4228-4295-9A09-A22C30AC7F5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
   <si>
     <t>CARTON NO</t>
   </si>
@@ -286,6 +286,57 @@
   </si>
   <si>
     <t>2XL</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>2XS</t>
+  </si>
+  <si>
+    <t>3XL</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
 </sst>
 </file>
@@ -396,13 +447,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -459,11 +511,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DB61BEF1-50FC-4A49-8CDF-9DB54297BFF3}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{CBD62CC7-C409-4FEA-B93D-54E1C804ADA7}"/>
     <cellStyle name="표준_HSI0210100K LBS07248459 - 5000 PCS  송하,신성(대우)(LB5908) (638) A " xfId="3" xr:uid="{2EF08E0A-2701-4E3F-85AE-3465AA0DF346}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,9 +536,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -520,7 +576,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -626,7 +682,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -768,7 +824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -776,44 +832,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555263AD-5947-4833-A0AF-64316F79D6BC}">
-  <dimension ref="A1:BZ11"/>
+  <dimension ref="A1:CQ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CK2" sqref="CK2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="1.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="67" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="1.88671875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="76" max="77" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="67" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="68" max="73" width="3.21875" customWidth="1"/>
+    <col min="74" max="74" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="2" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="4.21875" customWidth="1"/>
+    <col min="82" max="82" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="83" max="85" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="87" max="89" width="3" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:95" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -894,8 +958,25 @@
       <c r="BX1" s="7"/>
       <c r="BY1" s="7"/>
       <c r="BZ1" s="7"/>
+      <c r="CA1" s="7"/>
+      <c r="CB1" s="7"/>
+      <c r="CC1" s="7"/>
+      <c r="CD1" s="7"/>
+      <c r="CE1" s="7"/>
+      <c r="CF1" s="7"/>
+      <c r="CG1" s="7"/>
+      <c r="CH1" s="7"/>
+      <c r="CI1" s="7"/>
+      <c r="CJ1" s="7"/>
+      <c r="CK1" s="7"/>
+      <c r="CL1" s="7"/>
+      <c r="CM1" s="7"/>
+      <c r="CN1" s="7"/>
+      <c r="CO1" s="7"/>
+      <c r="CP1" s="7"/>
+      <c r="CQ1" s="7"/>
     </row>
-    <row r="2" spans="1:78" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:95" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -920,225 +1001,276 @@
       <c r="J2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="R2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="S2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="V2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="W2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="X2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="Y2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Z2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="AA2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AB2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AC2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AD2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AE2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AF2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AG2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AH2" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AI2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AK2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AK2" s="14" t="s">
+      <c r="AL2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AL2" s="14" t="s">
+      <c r="AM2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AM2" s="14" t="s">
+      <c r="AN2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AN2" s="14" t="s">
+      <c r="AO2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AO2" s="14" t="s">
+      <c r="AP2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AP2" s="14" t="s">
+      <c r="AQ2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AQ2" s="14" t="s">
+      <c r="AR2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="14" t="s">
+      <c r="AS2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AS2" s="14" t="s">
+      <c r="AT2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AT2" s="14" t="s">
+      <c r="AU2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AU2" s="14" t="s">
+      <c r="AV2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AV2" s="14" t="s">
+      <c r="AW2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AW2" s="14" t="s">
+      <c r="AX2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AX2" s="14" t="s">
+      <c r="AY2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AY2" s="14" t="s">
+      <c r="AZ2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AZ2" s="14" t="s">
+      <c r="BA2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="BA2" s="14" t="s">
+      <c r="BB2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="BB2" s="14" t="s">
+      <c r="BC2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="BC2" s="14" t="s">
+      <c r="BD2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="BD2" s="14" t="s">
+      <c r="BE2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="BE2" s="14" t="s">
+      <c r="BF2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="BF2" s="14" t="s">
+      <c r="BG2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="BG2" s="14" t="s">
+      <c r="BH2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="BH2" s="14" t="s">
+      <c r="BI2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="BI2" s="14" t="s">
+      <c r="BJ2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="BJ2" s="14" t="s">
+      <c r="BK2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="BK2" s="14" t="s">
+      <c r="BL2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="BL2" s="14" t="s">
+      <c r="BM2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="BM2" s="14" t="s">
+      <c r="BN2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="BN2" s="14" t="s">
+      <c r="BO2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="BO2" s="14" t="s">
+      <c r="BP2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="BR2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="BV2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="BP2" s="14" t="s">
+      <c r="BX2" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="BQ2" s="14" t="s">
+      <c r="BY2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="BR2" s="14" t="s">
+      <c r="BZ2" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="BS2" s="14" t="s">
+      <c r="CA2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="BT2" s="14" t="s">
+      <c r="CB2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="BU2" s="10" t="s">
+      <c r="CC2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="CF2" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="CK2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="BV2" s="10" t="s">
+      <c r="CM2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="BW2" s="10" t="s">
+      <c r="CN2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="BX2" s="10" t="s">
+      <c r="CO2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="BY2" s="10" t="s">
+      <c r="CP2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="BZ2" s="10" t="s">
+      <c r="CQ2" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:78" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:95" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>1</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="15">
-        <f>A3+BV3-1</f>
+        <f>A3+CM3-1</f>
         <v>1</v>
       </c>
       <c r="D3" s="15">
         <v>1</v>
       </c>
       <c r="E3" s="15">
-        <f>D3+BV3-1</f>
+        <f>D3+CM3-1</f>
         <v>1</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -1156,21 +1288,21 @@
       <c r="J3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15">
         <v>3</v>
       </c>
-      <c r="L3" s="15">
+      <c r="M3" s="15">
         <v>13</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15">
+      <c r="N3" s="15"/>
+      <c r="O3" s="15">
         <v>8</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15">
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15">
         <v>15</v>
       </c>
-      <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
@@ -1179,18 +1311,18 @@
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
-      <c r="Z3" s="15">
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15">
         <v>7</v>
       </c>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15">
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15">
         <v>3</v>
       </c>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15">
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15">
         <v>1</v>
       </c>
-      <c r="AE3" s="15"/>
       <c r="AF3" s="15"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
@@ -1232,30 +1364,47 @@
       <c r="BR3" s="15"/>
       <c r="BS3" s="15"/>
       <c r="BT3" s="15"/>
-      <c r="BU3" s="1">
-        <f t="shared" ref="BU3:BU7" si="0">SUM(K3:AJ3)</f>
+      <c r="BU3" s="15"/>
+      <c r="BV3" s="15"/>
+      <c r="BW3" s="15"/>
+      <c r="BX3" s="15"/>
+      <c r="BY3" s="15"/>
+      <c r="BZ3" s="15"/>
+      <c r="CA3" s="15"/>
+      <c r="CB3" s="15"/>
+      <c r="CC3" s="15"/>
+      <c r="CD3" s="15"/>
+      <c r="CE3" s="15"/>
+      <c r="CF3" s="15"/>
+      <c r="CG3" s="15"/>
+      <c r="CH3" s="15"/>
+      <c r="CI3" s="15"/>
+      <c r="CJ3" s="15"/>
+      <c r="CK3" s="15"/>
+      <c r="CL3" s="1">
+        <f>SUM(L3:AK3)</f>
         <v>50</v>
       </c>
-      <c r="BV3" s="15">
+      <c r="CM3" s="15">
         <v>1</v>
       </c>
-      <c r="BW3" s="18">
-        <f>BU3*BV3</f>
+      <c r="CN3" s="18">
+        <f>CL3*CM3</f>
         <v>50</v>
       </c>
-      <c r="BX3" s="15">
-        <f>22*BV3</f>
+      <c r="CO3" s="15">
+        <f>22*CM3</f>
         <v>22</v>
       </c>
-      <c r="BY3" s="9">
-        <f>23*BV3</f>
+      <c r="CP3" s="9">
+        <f>23*CM3</f>
         <v>23</v>
       </c>
-      <c r="BZ3" s="19" t="s">
+      <c r="CQ3" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:78" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:95" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <f>C3+1</f>
         <v>2</v>
@@ -1264,7 +1413,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="15">
-        <f>A4+BV4-1</f>
+        <f>A4+CM4-1</f>
         <v>2</v>
       </c>
       <c r="D4" s="15">
@@ -1272,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="15">
-        <f>D4+BV4-1</f>
+        <f>D4+CM4-1</f>
         <v>2</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -1297,22 +1446,22 @@
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
-      <c r="R4" s="15">
+      <c r="R4" s="15"/>
+      <c r="S4" s="15">
         <v>14</v>
       </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15">
+      <c r="T4" s="15"/>
+      <c r="U4" s="15">
         <v>10</v>
       </c>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15">
+      <c r="V4" s="15"/>
+      <c r="W4" s="15">
         <v>13</v>
       </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15">
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15">
         <v>8</v>
       </c>
-      <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
       <c r="AB4" s="15"/>
@@ -1360,39 +1509,56 @@
       <c r="BR4" s="15"/>
       <c r="BS4" s="15"/>
       <c r="BT4" s="15"/>
-      <c r="BU4" s="1">
-        <f t="shared" si="0"/>
+      <c r="BU4" s="15"/>
+      <c r="BV4" s="15"/>
+      <c r="BW4" s="15"/>
+      <c r="BX4" s="15"/>
+      <c r="BY4" s="15"/>
+      <c r="BZ4" s="15"/>
+      <c r="CA4" s="15"/>
+      <c r="CB4" s="15"/>
+      <c r="CC4" s="15"/>
+      <c r="CD4" s="15"/>
+      <c r="CE4" s="15"/>
+      <c r="CF4" s="15"/>
+      <c r="CG4" s="15"/>
+      <c r="CH4" s="15"/>
+      <c r="CI4" s="15"/>
+      <c r="CJ4" s="15"/>
+      <c r="CK4" s="15"/>
+      <c r="CL4" s="1">
+        <f>SUM(L4:AK4)</f>
         <v>45</v>
       </c>
-      <c r="BV4" s="15">
+      <c r="CM4" s="15">
         <v>1</v>
       </c>
-      <c r="BW4" s="18">
-        <f t="shared" ref="BW4:BW7" si="1">BU4*BV4</f>
+      <c r="CN4" s="18">
+        <f t="shared" ref="CN4:CN7" si="0">CL4*CM4</f>
         <v>45</v>
       </c>
-      <c r="BX4" s="15">
-        <f t="shared" ref="BX4:BX7" si="2">22*BV4</f>
+      <c r="CO4" s="15">
+        <f t="shared" ref="CO4:CO7" si="1">22*CM4</f>
         <v>22</v>
       </c>
-      <c r="BY4" s="9">
-        <f t="shared" ref="BY4:BY7" si="3">23*BV4</f>
+      <c r="CP4" s="9">
+        <f t="shared" ref="CP4:CP7" si="2">23*CM4</f>
         <v>23</v>
       </c>
-      <c r="BZ4" s="19" t="s">
+      <c r="CQ4" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:78" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:95" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
-        <f t="shared" ref="A5:A7" si="4">C4+1</f>
+        <f t="shared" ref="A5:A7" si="3">C4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="15">
-        <f>A5+BV5-1</f>
+        <f>A5+CM5-1</f>
         <v>3</v>
       </c>
       <c r="D5" s="15">
@@ -1400,7 +1566,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="15">
-        <f>D5+BV5-1</f>
+        <f>D5+CM5-1</f>
         <v>3</v>
       </c>
       <c r="F5" s="17" t="s">
@@ -1418,37 +1584,37 @@
       <c r="J5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="15">
-        <v>5</v>
-      </c>
+      <c r="K5" s="15"/>
       <c r="L5" s="15">
         <v>5</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15">
+      <c r="M5" s="15">
+        <v>5</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15">
         <v>4</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15">
         <v>7</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15">
+      <c r="R5" s="15"/>
+      <c r="S5" s="15">
         <v>8</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15">
+      <c r="T5" s="15"/>
+      <c r="U5" s="15">
         <v>4</v>
       </c>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15">
+      <c r="V5" s="15"/>
+      <c r="W5" s="15">
         <v>6</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15">
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15">
         <v>5</v>
       </c>
-      <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
       <c r="AB5" s="15"/>
@@ -1496,47 +1662,64 @@
       <c r="BR5" s="15"/>
       <c r="BS5" s="15"/>
       <c r="BT5" s="15"/>
-      <c r="BU5" s="1">
+      <c r="BU5" s="15"/>
+      <c r="BV5" s="15"/>
+      <c r="BW5" s="15"/>
+      <c r="BX5" s="15"/>
+      <c r="BY5" s="15"/>
+      <c r="BZ5" s="15"/>
+      <c r="CA5" s="15"/>
+      <c r="CB5" s="15"/>
+      <c r="CC5" s="15"/>
+      <c r="CD5" s="15"/>
+      <c r="CE5" s="15"/>
+      <c r="CF5" s="15"/>
+      <c r="CG5" s="15"/>
+      <c r="CH5" s="15"/>
+      <c r="CI5" s="15"/>
+      <c r="CJ5" s="15"/>
+      <c r="CK5" s="15"/>
+      <c r="CL5" s="1">
+        <f>SUM(L5:AK5)</f>
+        <v>44</v>
+      </c>
+      <c r="CM5" s="15">
+        <v>1</v>
+      </c>
+      <c r="CN5" s="18">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="BV5" s="15">
-        <v>1</v>
-      </c>
-      <c r="BW5" s="18">
+      <c r="CO5" s="15">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="BX5" s="15">
+        <v>22</v>
+      </c>
+      <c r="CP5" s="9">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="BY5" s="9">
+        <v>23</v>
+      </c>
+      <c r="CQ5" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:95" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="BZ5" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:78" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="15">
-        <f>A6+BV6-1</f>
+        <f>A6+CM6-1</f>
         <v>4</v>
       </c>
       <c r="D6" s="15">
-        <f t="shared" ref="D6:D7" si="5">E5+1</f>
+        <f t="shared" ref="D6:D7" si="4">E5+1</f>
         <v>4</v>
       </c>
       <c r="E6" s="15">
-        <f>D6+BV6-1</f>
+        <f>D6+CM6-1</f>
         <v>4</v>
       </c>
       <c r="F6" s="17" t="s">
@@ -1554,21 +1737,21 @@
       <c r="J6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="15">
-        <v>10</v>
-      </c>
+      <c r="K6" s="15"/>
       <c r="L6" s="15">
         <v>10</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15">
+      <c r="M6" s="15">
+        <v>10</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15">
         <v>7</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15">
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15">
         <v>14</v>
       </c>
-      <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
@@ -1624,47 +1807,64 @@
       <c r="BR6" s="15"/>
       <c r="BS6" s="15"/>
       <c r="BT6" s="15"/>
-      <c r="BU6" s="1">
+      <c r="BU6" s="15"/>
+      <c r="BV6" s="15"/>
+      <c r="BW6" s="15"/>
+      <c r="BX6" s="15"/>
+      <c r="BY6" s="15"/>
+      <c r="BZ6" s="15"/>
+      <c r="CA6" s="15"/>
+      <c r="CB6" s="15"/>
+      <c r="CC6" s="15"/>
+      <c r="CD6" s="15"/>
+      <c r="CE6" s="15"/>
+      <c r="CF6" s="15"/>
+      <c r="CG6" s="15"/>
+      <c r="CH6" s="15"/>
+      <c r="CI6" s="15"/>
+      <c r="CJ6" s="15"/>
+      <c r="CK6" s="15"/>
+      <c r="CL6" s="1">
+        <f>SUM(L6:AK6)</f>
+        <v>41</v>
+      </c>
+      <c r="CM6" s="15">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="18">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="BV6" s="15">
-        <v>1</v>
-      </c>
-      <c r="BW6" s="18">
+      <c r="CO6" s="15">
         <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="BX6" s="15">
+        <v>22</v>
+      </c>
+      <c r="CP6" s="9">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="BY6" s="9">
+        <v>23</v>
+      </c>
+      <c r="CQ6" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:95" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="BZ6" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:78" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="15">
+        <f>A7+CM7-1</f>
+        <v>5</v>
+      </c>
+      <c r="D7" s="15">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="15">
-        <f>A7+BV7-1</f>
-        <v>5</v>
-      </c>
-      <c r="D7" s="15">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
       <c r="E7" s="15">
-        <f>D7+BV7-1</f>
+        <f>D7+CM7-1</f>
         <v>5</v>
       </c>
       <c r="F7" s="17" t="s">
@@ -1689,18 +1889,18 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
-      <c r="R7" s="15">
+      <c r="R7" s="15"/>
+      <c r="S7" s="15">
         <v>13</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15">
         <v>13</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15">
+      <c r="V7" s="15"/>
+      <c r="W7" s="15">
         <v>22</v>
       </c>
-      <c r="W7" s="15"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
@@ -1750,30 +1950,47 @@
       <c r="BR7" s="15"/>
       <c r="BS7" s="15"/>
       <c r="BT7" s="15"/>
-      <c r="BU7" s="1">
+      <c r="BU7" s="15"/>
+      <c r="BV7" s="15"/>
+      <c r="BW7" s="15"/>
+      <c r="BX7" s="15"/>
+      <c r="BY7" s="15"/>
+      <c r="BZ7" s="15"/>
+      <c r="CA7" s="15"/>
+      <c r="CB7" s="15"/>
+      <c r="CC7" s="15"/>
+      <c r="CD7" s="15"/>
+      <c r="CE7" s="15"/>
+      <c r="CF7" s="15"/>
+      <c r="CG7" s="15"/>
+      <c r="CH7" s="15"/>
+      <c r="CI7" s="15"/>
+      <c r="CJ7" s="15"/>
+      <c r="CK7" s="15"/>
+      <c r="CL7" s="1">
+        <f>SUM(L7:AK7)</f>
+        <v>48</v>
+      </c>
+      <c r="CM7" s="15">
+        <v>1</v>
+      </c>
+      <c r="CN7" s="18">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="BV7" s="15">
-        <v>1</v>
-      </c>
-      <c r="BW7" s="18">
+      <c r="CO7" s="15">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="BX7" s="15">
+        <v>22</v>
+      </c>
+      <c r="CP7" s="9">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="BY7" s="9">
-        <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="BZ7" s="19" t="s">
+      <c r="CQ7" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1784,8 +2001,9 @@
       <c r="H8" s="3"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1796,8 +2014,9 @@
       <c r="H9" s="3"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1808,8 +2027,9 @@
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
@@ -1820,6 +2040,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
